--- a/biology/Botanique/Ensete_ventricosum/Ensete_ventricosum.xlsx
+++ b/biology/Botanique/Ensete_ventricosum/Ensete_ventricosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bananier d'Abyssinie
 Le bananier d'Abyssinie (Ensete ventricosum) est une espèce de plantes herbacées de la famille des Musaceae. Ce proche cousin des bananiers du genre Musa est originaire de nombreuses zones de l'ouest, du sud et de l'est de l'Afrique.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bananier d'Abyssinie, est un grand bananier, sans rejets à la base, pouvant atteindre 6 à 10 mètres de hauteur ou plus, dans des conditions optimales. Il est très intéressant pour ses qualités ornementales, et pour sa grande vitesse de croissance. Une graine mise à germer au printemps peut donner une plante de presque 1,50 m en l'espace d'un été.
 En termes de résistance au froid, c'est un bananier relativement frileux, capable cependant de résister à de légers gels de l'ordre de -4 à -6 °C environ.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce bananier apprécie un sol riche, léger et humide en permanence pendant la période de croissance.
 Le vent lacère facilement les feuilles, et freine la croissance de la plante. Il est donc préférable de cultiver Ensete ventricosum dans une zone abritée des vents forts.
@@ -579,7 +595,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensete étant un genre de plantes monocarpiques non cespiteuses, la plante disparaît après fructification. Ses graines, qui sont grosses, noires et irrégulières, sont donc le moyen naturel de reproduction de ces plantes.
 Après décapitation du pseudo-tronc, une multitude de pousses adventives apparaissent sur la tranche. Elles sont assez faciles à détacher et peuvent être bouturées après l'apparition des premières racines.
@@ -612,9 +630,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Musa ensete J.F.Gmel[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Musa ensete J.F.Gmel.</t>
         </is>
       </c>
     </row>
